--- a/Tugas10/test.xlsx
+++ b/Tugas10/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maranatha\Documents\Kuliah\SEM 6\Progjar\Progjar_B\Tugas10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A7DD97-5296-4767-A7E9-A2E58693703C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE590B38-00B0-44F8-A8D0-183AD49028A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{32D69AAA-BF30-484A-BC28-531B95FE3D6A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t xml:space="preserve">Concurrency level </t>
   </si>
@@ -68,7 +68,10 @@
     <t>Thread</t>
   </si>
   <si>
-    <t>Load Balancer</t>
+    <t>Async + Load Balancer</t>
+  </si>
+  <si>
+    <t>Thread + Load Balancer</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B990F95-621F-4259-8A62-B7A03FABBA60}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,6 +1273,251 @@
         <v>182.3</v>
       </c>
     </row>
+    <row r="34" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>140.40199999999999</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>122000</v>
+      </c>
+      <c r="H36" s="1">
+        <v>7.12</v>
+      </c>
+      <c r="I36" s="1">
+        <v>140.40199999999999</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>27.715</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>122000</v>
+      </c>
+      <c r="H37" s="1">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I37" s="1">
+        <v>27.175000000000001</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>15.037000000000001</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>122000</v>
+      </c>
+      <c r="H38" s="1">
+        <v>66.5</v>
+      </c>
+      <c r="I38" s="1">
+        <v>15.037000000000001</v>
+      </c>
+      <c r="J38" s="1">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1">
+        <v>12.97</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>122000</v>
+      </c>
+      <c r="H39" s="1">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="I39" s="1">
+        <v>12.97</v>
+      </c>
+      <c r="J39" s="1">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1">
+        <v>13.983000000000001</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>122000</v>
+      </c>
+      <c r="H40" s="1">
+        <v>71.510000000000005</v>
+      </c>
+      <c r="I40" s="1">
+        <v>13.983000000000001</v>
+      </c>
+      <c r="J40" s="1">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>50</v>
+      </c>
+      <c r="D41" s="1">
+        <v>13.478</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>122000</v>
+      </c>
+      <c r="H41" s="1">
+        <v>74.19</v>
+      </c>
+      <c r="I41" s="1">
+        <v>13.478</v>
+      </c>
+      <c r="J41" s="1">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1">
+        <v>100</v>
+      </c>
+      <c r="D42" s="1">
+        <v>14.135999999999999</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>122000</v>
+      </c>
+      <c r="H42" s="1">
+        <v>70.739999999999995</v>
+      </c>
+      <c r="I42" s="1">
+        <v>14.135999999999999</v>
+      </c>
+      <c r="J42" s="1">
+        <v>8.43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
